--- a/www/Parsing/Work Experience.xlsx
+++ b/www/Parsing/Work Experience.xlsx
@@ -1,373 +1,516 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>ADDITIONAL EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Additional Experience</t>
-  </si>
-  <si>
-    <t>ARMY EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Army Experience</t>
-  </si>
-  <si>
-    <t>CAREER RELATED EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Career Related Experience</t>
-  </si>
-  <si>
-    <t>EMPLOYMENT HISTORY</t>
-  </si>
-  <si>
-    <t>Employment History</t>
-  </si>
-  <si>
-    <t>EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>FREELANCE</t>
-  </si>
-  <si>
-    <t>Freelance</t>
-  </si>
-  <si>
-    <t>FREELANCE EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Freelance Experience</t>
-  </si>
-  <si>
-    <t>MILITARY BACKGROUND</t>
-  </si>
-  <si>
-    <t>Military Background</t>
-  </si>
-  <si>
-    <t>MILITARY EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Military Experience</t>
-  </si>
-  <si>
-    <t>PROFESSIONAL BACKGROUND</t>
-  </si>
-  <si>
-    <t>Professional Background</t>
-  </si>
-  <si>
-    <t>PROFESSIONAL EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Professional Experience</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>PROJECTS</t>
-  </si>
-  <si>
-    <t>Related Experience</t>
-  </si>
-  <si>
-    <t>RELATED EXPERIENCE</t>
-  </si>
-  <si>
-    <t>WORK EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Work Experience</t>
-  </si>
-  <si>
-    <t>Work History</t>
-  </si>
-  <si>
-    <t>WORK HISTORY</t>
-  </si>
-  <si>
-    <t>Professional History</t>
-  </si>
-  <si>
-    <t>PROFESSIONAL HISTORY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDITIONAL EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMY EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAREER RELATED EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Career Related Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLOYMENT HISTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREELANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREELANCE EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelance Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILITARY BACKGROUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILITARY EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFESSIONAL BACKGROUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFESSIONAL EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATED EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORK EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORK HISTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFESSIONAL HISTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF24292E"/>
       <name val="SFMono-Regular"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF24292E"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>